--- a/Test data/Book2.xlsx
+++ b/Test data/Book2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14970" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13305" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
-  <si>
-    <t>User id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Bangalore</t>
   </si>
   <si>
     <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Arrivals</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -370,18 +373,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
